--- a/src/test/resources/simple-testcase.xlsx
+++ b/src/test/resources/simple-testcase.xlsx
@@ -2,67 +2,204 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="13605"/>
+    <workbookView xWindow="39645" yWindow="45" windowWidth="22095" windowHeight="11430"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression_Name_Test" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Aktionen">Tabelle2!$A$2:$A$32</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+  <si>
+    <t>TESTZIEL</t>
+  </si>
+  <si>
+    <t>VORAUSSETZUNGEN</t>
+  </si>
+  <si>
+    <t>BESCHREIBUNG</t>
+  </si>
+  <si>
+    <t>ERWARTETES ERGEBNIS</t>
+  </si>
+  <si>
+    <t>TESTDATEN</t>
+  </si>
+  <si>
+    <t>PRIO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>BUG NR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TA</t>
+  </si>
   <si>
     <t>TF_ID</t>
   </si>
   <si>
-    <t>TESTZIEL</t>
-  </si>
-  <si>
-    <t>VORAUSSETZUNGEN</t>
-  </si>
-  <si>
-    <t>BESCHREIBUNG</t>
-  </si>
-  <si>
-    <t>ERWARTETES ERGEBNIS</t>
-  </si>
-  <si>
-    <t>TESTDATEN</t>
-  </si>
-  <si>
-    <t>PRIO</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>BUG NR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TA</t>
-  </si>
-  <si>
-    <t>F-001</t>
-  </si>
-  <si>
     <t>Offen</t>
   </si>
   <si>
+    <t>T-001</t>
+  </si>
+  <si>
+    <t>T-002</t>
+  </si>
+  <si>
+    <t>T-003</t>
+  </si>
+  <si>
+    <t>T-004</t>
+  </si>
+  <si>
+    <t>T-005</t>
+  </si>
+  <si>
+    <t>T-006</t>
+  </si>
+  <si>
+    <t>T-007</t>
+  </si>
+  <si>
+    <t>T-008</t>
+  </si>
+  <si>
+    <t>T-009</t>
+  </si>
+  <si>
+    <t>T-010</t>
+  </si>
+  <si>
+    <t>TEST
+STEPS</t>
+  </si>
+  <si>
+    <t>Aktion</t>
+  </si>
+  <si>
+    <t>Auswahl Aktionen</t>
+  </si>
+  <si>
+    <t>Postkorbeintrag auswählen</t>
+  </si>
+  <si>
+    <t>Reiter auswählen</t>
+  </si>
+  <si>
+    <t>OL Login</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Click Button</t>
+  </si>
+  <si>
+    <t>Click Link</t>
+  </si>
+  <si>
+    <t>Postkorb</t>
+  </si>
+  <si>
+    <t>Menü Suche</t>
+  </si>
+  <si>
+    <t>Menü Kunde</t>
+  </si>
+  <si>
+    <t>Menü Produkte</t>
+  </si>
+  <si>
+    <t>Menü Bearbeitung</t>
+  </si>
+  <si>
+    <t>Menü E-Mail</t>
+  </si>
+  <si>
+    <t>Menü Individuelle Briefe</t>
+  </si>
+  <si>
+    <t>Menü Fremdadressen</t>
+  </si>
+  <si>
+    <t>Menü Reports</t>
+  </si>
+  <si>
+    <t>Menü Meldewesen</t>
+  </si>
+  <si>
+    <t>Menü Kontaktklassifizierung</t>
+  </si>
+  <si>
+    <t>OB Login</t>
+  </si>
+  <si>
+    <t>PWS Direkt-Sparen</t>
+  </si>
+  <si>
+    <t>PWS Direkt-Kredit</t>
+  </si>
+  <si>
+    <t>PWS Konto - Gehaltskonto</t>
+  </si>
+  <si>
+    <t>PWS Konto - Girokonto</t>
+  </si>
+  <si>
+    <t>PWS Konto - Basiskonto</t>
+  </si>
+  <si>
+    <t>PWS Direkt-Depot</t>
+  </si>
+  <si>
+    <t>Datei hochladen</t>
+  </si>
+  <si>
+    <t>Speichern</t>
+  </si>
+  <si>
+    <t>Menü FiCo</t>
+  </si>
+  <si>
+    <t>Postkorb - Unbearbeitet</t>
+  </si>
+  <si>
+    <t>Postkorb - Wiedervorlage</t>
+  </si>
+  <si>
+    <t>Postkorb - Evidenz</t>
+  </si>
+  <si>
+    <t>Postkorb - In Bearbeitung</t>
+  </si>
+  <si>
     <t>Test Case Summary</t>
   </si>
   <si>
     <t>Preconditions</t>
   </si>
   <si>
-    <t>1. Do first
-2. Do next
-3. Do last</t>
+    <t>Do first</t>
+  </si>
+  <si>
+    <t>Do next</t>
+  </si>
+  <si>
+    <t>Do last</t>
   </si>
   <si>
     <t>Expected result</t>
@@ -72,21 +209,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -122,12 +251,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -151,6 +280,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -159,64 +314,551 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000066"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00FF944C"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00CCCCCC"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00000066"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="0094A7CE"/>
+      <rgbColor rgb="00D6DDED"/>
+      <rgbColor rgb="00F3F5FA"/>
+      <rgbColor rgb="00FF944C"/>
+      <rgbColor rgb="00FFDAA6"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00000066"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="0094A7CE"/>
+      <rgbColor rgb="00D6DDED"/>
+      <rgbColor rgb="00F3F5FA"/>
+      <rgbColor rgb="00FF944C"/>
+      <rgbColor rgb="00FFDAA6"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00999999"/>
+      <rgbColor rgb="00F3F5FA"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00D6DDED"/>
+      <rgbColor rgb="0094A7CE"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFDAA6"/>
+      <rgbColor rgb="00000000"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FF65B2FF"/>
+      <color rgb="FF3399FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,44 +868,44 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="_ING-DiBa">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="©ING-DiBa">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000066"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="FF944C"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="94A7CE"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="FF6600"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="D6DDED"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="000066"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4A5558"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="E1DFCC"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="4A5558"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="E1DFCC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Larissa">
@@ -512,155 +1154,1987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11" style="4"/>
+    <col min="11" max="11" width="11" style="3"/>
+    <col min="12" max="12" width="11" style="4"/>
+    <col min="13" max="16" width="11" style="9"/>
+    <col min="17" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="42.75">
-      <c r="A3" s="5" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="9" customHeight="1" thickBot="1">
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="37">
+        <v>6</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="37">
+        <v>7</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="26">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="20">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="37">
+        <v>6</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="37">
+        <v>7</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="26">
+        <v>8</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="20">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="44"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="11">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="37">
+        <v>6</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="37">
+        <v>7</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="26">
+        <v>8</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A27" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="39">
+        <v>1</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="11">
+        <v>3</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="11">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A31" s="44"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="37">
+        <v>6</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A33" s="44"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="37">
+        <v>7</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="26">
+        <v>8</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A35" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6">
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="39">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="20">
+        <v>1</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+    </row>
+    <row r="36" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A36" s="44"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="44"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="11">
+        <v>3</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A38" s="44"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="11">
+        <v>4</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A39" s="44"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="11">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A40" s="44"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="37">
+        <v>6</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A41" s="44"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="37">
+        <v>7</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="26">
+        <v>8</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A43" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="39">
+        <v>1</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="20">
+        <v>1</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+    </row>
+    <row r="44" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A44" s="44"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="12">
+        <v>2</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="44"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="11">
+        <v>3</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A46" s="44"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="11">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A47" s="44"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="11">
+        <v>5</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A48" s="44"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="37">
+        <v>6</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="37">
+        <v>7</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A50" s="45"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="26">
+        <v>8</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A51" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="39">
+        <v>1</v>
+      </c>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="20">
+        <v>1</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+    </row>
+    <row r="52" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A52" s="44"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="12">
+        <v>2</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="44"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A54" s="44"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="11">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A55" s="44"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="11">
+        <v>5</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A56" s="44"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="37">
+        <v>6</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+    </row>
+    <row r="57" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A57" s="44"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="37">
+        <v>7</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+    </row>
+    <row r="58" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A58" s="45"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="26">
+        <v>8</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+    </row>
+    <row r="59" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A59" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="48"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="39">
+        <v>1</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="20">
+        <v>1</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+    </row>
+    <row r="60" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A60" s="44"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="12">
+        <v>2</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+    </row>
+    <row r="61" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="44"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="11">
+        <v>3</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+    </row>
+    <row r="62" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A62" s="44"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="11">
+        <v>4</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+    </row>
+    <row r="63" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A63" s="44"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="11">
+        <v>5</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A64" s="44"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="37">
+        <v>6</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+    </row>
+    <row r="65" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A65" s="44"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="37">
+        <v>7</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+    </row>
+    <row r="66" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A66" s="45"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="26">
+        <v>8</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A67" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="48"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="39">
+        <v>1</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="20">
+        <v>1</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+    </row>
+    <row r="68" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A68" s="44"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="12">
+        <v>2</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+    </row>
+    <row r="69" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A69" s="44"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="11">
+        <v>3</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+    </row>
+    <row r="70" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A70" s="44"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="11">
+        <v>4</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+    </row>
+    <row r="71" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A71" s="44"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="11">
+        <v>5</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+    </row>
+    <row r="72" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A72" s="44"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="37">
+        <v>6</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A73" s="44"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="37">
+        <v>7</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+    </row>
+    <row r="74" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A74" s="45"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="26">
+        <v>8</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+    </row>
+    <row r="75" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A75" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="48"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="39">
+        <v>1</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="20">
+        <v>1</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+    </row>
+    <row r="76" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A76" s="44"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="12">
+        <v>2</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+    </row>
+    <row r="77" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A77" s="44"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="11">
+        <v>3</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+    </row>
+    <row r="78" spans="1:16" s="6" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A78" s="44"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="11">
+        <v>4</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+    </row>
+    <row r="79" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A79" s="44"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="11">
+        <v>5</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+    </row>
+    <row r="80" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A80" s="44"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="37">
+        <v>6</v>
+      </c>
+      <c r="E80" s="37"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+    </row>
+    <row r="81" spans="1:16" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A81" s="44"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="37">
+        <v>7</v>
+      </c>
+      <c r="E81" s="37"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+    </row>
+    <row r="82" spans="1:16" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A82" s="45"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="26">
+        <v>8</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <mergeCells count="20">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C74"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I59 I1:I3 I11 I19 I27 I35 I43 I51 I67 I83:I1048576 I75">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L27 L59 L1:L3 L11 L19 L35 L43 L51 L67 L83:L1048576 L75">
+      <formula1>"Ja, Nein, Nicht möglich"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J35 J59 J1:J3 J11 J19 J27 J43 J51 J67 J83:J1048576 J75">
+      <formula1>"Offen, Failed, Passed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 E1 E2">
+      <formula1>Aktionen</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>